--- a/NformTester/NformTester/Keywordscripts/900.30.160_GadgetFilterCapability.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.160_GadgetFilterCapability.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7442" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7442" uniqueCount="837">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3744,6 +3744,10 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4746,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6076,7 +6080,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>772</v>
+        <v>836</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>18</v>
